--- a/files/excelFilesforFigures/Figure2.xlsx
+++ b/files/excelFilesforFigures/Figure2.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB6C17-9536-46EE-86DE-5A7C20F10F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA32ABB-6EC5-4ADB-8F2E-C2A683D4285A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,19 +26,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Time Unit</t>
   </si>
   <si>
     <t>Total number of query arrivals per time unit</t>
   </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Somme de Total number of query arrivals per time unit2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +55,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,12 +86,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,7 +149,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -726,7 +777,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE48-4726-A9FF-E37C5F106B04}"/>
@@ -749,6 +800,1008 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Elapsed time units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929621183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929621183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>umber of query</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> arrivals per time unit</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="900">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1095700416088766E-2"/>
+              <c:y val="6.3380279204951567E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563174111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$Q$2:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E831-46E1-B146-942F3B9D527B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="563174111"/>
+        <c:axId val="929621183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="563174111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Elapsed time units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929621183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929621183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>umber of query</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="900" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> arrivals per time unit</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="900">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1095700416088766E-2"/>
+              <c:y val="6.3380279204951567E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563174111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$P$19:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$Q$19:$Q$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABE2-4EEB-A6D4-1A4056A5FA82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="563174111"/>
+        <c:axId val="929621183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="563174111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1110,6 +2163,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1626,20 +2759,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1664,7 +3829,1566 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C79308-1E19-4F79-B78D-295F3798D521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A17732-6801-4652-ADF6-2DB1FDFAB2A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="45371.536475347224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97" xr:uid="{4422CD86-CBE8-402A-A610-59398D7889A8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D98" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Time Unit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="115"/>
+    </cacheField>
+    <cacheField name="Total number of query arrivals per time unit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
+    </cacheField>
+    <cacheField name="Time Unit2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11" count="12">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total number of query arrivals per time unit2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="45371.541254976852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97" xr:uid="{C2349D9D-B846-4428-97C4-86C0E32ACC21}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D98" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Time Unit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="115"/>
+    </cacheField>
+    <cacheField name="Total number of query arrivals per time unit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
+    </cacheField>
+    <cacheField name="Time Unit2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="23" count="23">
+        <n v="0"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total number of query arrivals per time unit2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <n v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="7"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="12"/>
+    <x v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="4"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="26"/>
+    <x v="2"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="5"/>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="6"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="13"/>
+    <x v="2"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="11"/>
+    <x v="3"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="7"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="9"/>
+    <x v="3"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="12"/>
+    <x v="3"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="13"/>
+    <x v="3"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="36"/>
+    <x v="3"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="39"/>
+    <x v="3"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="14"/>
+    <x v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="16"/>
+    <x v="3"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="11"/>
+    <x v="3"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="6"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="12"/>
+    <x v="4"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="4"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="16"/>
+    <x v="4"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="28"/>
+    <x v="4"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="18"/>
+    <x v="4"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="7"/>
+    <x v="5"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="15"/>
+    <x v="5"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="18"/>
+    <x v="5"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="16"/>
+    <x v="5"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="38"/>
+    <x v="5"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="29"/>
+    <x v="5"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="19"/>
+    <x v="5"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="30"/>
+    <x v="5"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="26"/>
+    <x v="5"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="16"/>
+    <x v="5"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="29"/>
+    <x v="6"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="59"/>
+    <x v="6"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="42"/>
+    <x v="6"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="10"/>
+    <x v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="11"/>
+    <x v="6"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="8"/>
+    <x v="6"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="20"/>
+    <x v="6"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="23"/>
+    <x v="6"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="29"/>
+    <x v="6"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="14"/>
+    <x v="6"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="17"/>
+    <x v="7"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="20"/>
+    <x v="7"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="12"/>
+    <x v="7"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="21"/>
+    <x v="7"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="19"/>
+    <x v="7"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="5"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="1"/>
+    <x v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="14"/>
+    <x v="7"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="4"/>
+    <x v="7"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="5"/>
+    <x v="8"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="7"/>
+    <x v="8"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="6"/>
+    <x v="8"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="7"/>
+    <x v="8"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="1"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="1"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="3"/>
+    <x v="9"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="2"/>
+    <x v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="2"/>
+    <x v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="2"/>
+    <x v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="1"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="1"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="1"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <n v="1"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <n v="2"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <n v="2"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="3"/>
+    <x v="11"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <n v="2"/>
+    <x v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <n v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="7"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="12"/>
+    <x v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="7"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="26"/>
+    <x v="3"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="20"/>
+    <x v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="2"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="6"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="20"/>
+    <x v="4"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="13"/>
+    <x v="4"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="11"/>
+    <x v="5"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="7"/>
+    <x v="5"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="9"/>
+    <x v="5"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="12"/>
+    <x v="5"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="13"/>
+    <x v="5"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="36"/>
+    <x v="6"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="39"/>
+    <x v="6"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="14"/>
+    <x v="6"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="16"/>
+    <x v="6"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="11"/>
+    <x v="6"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="6"/>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="12"/>
+    <x v="7"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="10"/>
+    <x v="7"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="4"/>
+    <x v="7"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="16"/>
+    <x v="8"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="28"/>
+    <x v="8"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="18"/>
+    <x v="8"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="7"/>
+    <x v="8"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="7"/>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="15"/>
+    <x v="9"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="18"/>
+    <x v="9"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="16"/>
+    <x v="9"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="38"/>
+    <x v="9"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="29"/>
+    <x v="10"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="19"/>
+    <x v="10"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="30"/>
+    <x v="10"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="26"/>
+    <x v="10"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="16"/>
+    <x v="10"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="29"/>
+    <x v="11"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="59"/>
+    <x v="11"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="42"/>
+    <x v="11"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="10"/>
+    <x v="11"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="11"/>
+    <x v="11"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="8"/>
+    <x v="12"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="20"/>
+    <x v="12"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="23"/>
+    <x v="12"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="29"/>
+    <x v="12"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="14"/>
+    <x v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="17"/>
+    <x v="13"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="20"/>
+    <x v="13"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="12"/>
+    <x v="13"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="21"/>
+    <x v="13"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="19"/>
+    <x v="13"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="5"/>
+    <x v="14"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="1"/>
+    <x v="14"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="7"/>
+    <x v="14"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="14"/>
+    <x v="14"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="4"/>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="5"/>
+    <x v="15"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="3"/>
+    <x v="15"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="3"/>
+    <x v="15"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="7"/>
+    <x v="15"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="6"/>
+    <x v="16"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="1"/>
+    <x v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="1"/>
+    <x v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="7"/>
+    <x v="16"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="3"/>
+    <x v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="3"/>
+    <x v="17"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="2"/>
+    <x v="17"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="2"/>
+    <x v="18"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="2"/>
+    <x v="18"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="1"/>
+    <x v="18"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="1"/>
+    <x v="18"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="1"/>
+    <x v="19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <n v="1"/>
+    <x v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <n v="2"/>
+    <x v="20"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <n v="2"/>
+    <x v="20"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="1"/>
+    <x v="21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="3"/>
+    <x v="21"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <n v="2"/>
+    <x v="21"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="1"/>
+    <x v="22"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C401FE7-E217-4218-A83E-B72B86212A0E}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:N5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Total number of query arrivals per time unit2" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32CEAA99-0412-400D-906F-E67819AC76DD}" name="Tableau croisé dynamique4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:Y5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="24">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Total number of query arrivals per time unit2" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1929,11 +5653,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166FFFD7-DA95-40A7-B4FD-0DC9E973E804}">
+  <dimension ref="A3:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3">
+        <v>168</v>
+      </c>
+      <c r="F5" s="3">
+        <v>119</v>
+      </c>
+      <c r="G5" s="3">
+        <v>214</v>
+      </c>
+      <c r="H5" s="3">
+        <v>245</v>
+      </c>
+      <c r="I5" s="3">
+        <v>120</v>
+      </c>
+      <c r="J5" s="3">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F557C372-7954-491A-8BAE-5FC25DABC3C5}">
+  <dimension ref="A3:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>58</v>
+      </c>
+      <c r="F5" s="3">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3">
+        <v>116</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
+        <v>79</v>
+      </c>
+      <c r="K5" s="3">
+        <v>94</v>
+      </c>
+      <c r="L5" s="3">
+        <v>120</v>
+      </c>
+      <c r="M5" s="3">
+        <v>151</v>
+      </c>
+      <c r="N5" s="3">
+        <v>94</v>
+      </c>
+      <c r="O5" s="3">
+        <v>89</v>
+      </c>
+      <c r="P5" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3">
+        <v>18</v>
+      </c>
+      <c r="S5" s="3">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3">
+        <v>6</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3">
+        <v>6</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,787 +5960,1688 @@
     <col min="1" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>ROUNDDOWN(A2/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">ROUNDDOWN(A3/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
       <c r="B16">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="P22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
       <c r="B24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="P24" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="P25" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
       <c r="B26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="P26" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="P27" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
       <c r="B28">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="P28" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
       <c r="B29">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="P29" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
       <c r="B30">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>39</v>
+      </c>
+      <c r="P30" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
       <c r="B31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="P31" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="P32" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
       <c r="B33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="P33" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="P34" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
       <c r="B35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="P35" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="P36" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
       <c r="B37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="P37" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="P39" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>46</v>
       </c>
       <c r="B40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="P40" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>47</v>
       </c>
       <c r="B41">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="P41" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>48</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>49</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>51</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>52</v>
       </c>
       <c r="B46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>53</v>
       </c>
       <c r="B47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>54</v>
       </c>
       <c r="B48">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>56</v>
       </c>
       <c r="B50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>57</v>
       </c>
       <c r="B51">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>58</v>
       </c>
       <c r="B52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>59</v>
       </c>
       <c r="B53">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>60</v>
       </c>
       <c r="B54">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>61</v>
       </c>
       <c r="B55">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>62</v>
       </c>
       <c r="B56">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>63</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>64</v>
       </c>
       <c r="B58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>65</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>66</v>
       </c>
       <c r="B60">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67</v>
       </c>
       <c r="B61">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>68</v>
       </c>
       <c r="B62">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>69</v>
       </c>
       <c r="B63">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>70</v>
       </c>
       <c r="B64">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>71</v>
       </c>
       <c r="B65">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>72</v>
       </c>
       <c r="B66">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>73</v>
       </c>
       <c r="B67">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" ref="C67:C98" si="1">ROUNDDOWN(A67/5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>74</v>
       </c>
       <c r="B68">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>75</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>77</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>78</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>79</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>80</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>82</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>83</v>
       </c>
       <c r="B77">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>85</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>86</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>87</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>88</v>
       </c>
       <c r="B81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>89</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>90</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>91</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>93</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>94</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>97</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>99</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>107</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>108</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>109</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>110</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>112</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>113</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>115</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D98">
         <v>1</v>
       </c>
     </row>

--- a/files/excelFilesforFigures/Figure2.xlsx
+++ b/files/excelFilesforFigures/Figure2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA32ABB-6EC5-4ADB-8F2E-C2A683D4285A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5D52C-A521-4BD9-BB6E-E5E547545B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
